--- a/code/database/data_extract.xlsx
+++ b/code/database/data_extract.xlsx
@@ -19,771 +19,774 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="256">
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>ID_asset</t>
+  </si>
   <si>
     <t>title</t>
   </si>
   <si>
-    <t>link</t>
-  </si>
-  <si>
-    <t>site_name</t>
+    <t>extracted_from</t>
   </si>
   <si>
     <t>screenshot_path</t>
   </si>
   <si>
+    <t>https://www.cimaclub.io/the-blacklist-redemption-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-1-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-1-%d8%a7%d9%84%d8%a7%d9%88%d9%84%d9%89/</t>
+  </si>
+  <si>
     <t>The Blacklist: Redemption الموسم 1 الحلقة 1 الاولى</t>
   </si>
   <si>
-    <t>https://www.cimaclub.io/the-blacklist-redemption-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-1-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-1-%d8%a7%d9%84%d8%a7%d9%88%d9%84%d9%89/</t>
-  </si>
-  <si>
     <t>cimaclub</t>
   </si>
   <si>
     <t>../screenshots/The Blacklist: Redemption الموسم 1 الحلقة 1 الاولى.png</t>
   </si>
   <si>
+    <t>https://www.cimaclub.io/the-blacklist-redemption-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-1-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-2-%d8%a7%d9%84%d8%ab%d8%a7%d9%86%d9%8a%d8%a9/</t>
+  </si>
+  <si>
     <t>The Blacklist: Redemption الموسم 1 الحلقة 2 الثانية</t>
   </si>
   <si>
-    <t>https://www.cimaclub.io/the-blacklist-redemption-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-1-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-2-%d8%a7%d9%84%d8%ab%d8%a7%d9%86%d9%8a%d8%a9/</t>
-  </si>
-  <si>
     <t>../screenshots/The Blacklist: Redemption الموسم 1 الحلقة 2 الثانية.png</t>
   </si>
   <si>
+    <t>https://www.cimaclub.io/the-blacklist-redemption-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-1-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-3-%d8%a7%d9%84%d8%ab%d8%a7%d9%84%d8%ab%d8%a9/</t>
+  </si>
+  <si>
     <t>The Blacklist: Redemption الموسم 1 الحلقة 3 الثالثة</t>
   </si>
   <si>
-    <t>https://www.cimaclub.io/the-blacklist-redemption-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-1-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-3-%d8%a7%d9%84%d8%ab%d8%a7%d9%84%d8%ab%d8%a9/</t>
-  </si>
-  <si>
     <t>../screenshots/The Blacklist: Redemption الموسم 1 الحلقة 3 الثالثة.png</t>
   </si>
   <si>
+    <t>https://www.cimaclub.io/the-blacklist-redemption-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-1-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-4-%d8%a7%d9%84%d8%b1%d8%a7%d8%a8%d8%b9%d8%a9/</t>
+  </si>
+  <si>
     <t>The Blacklist: Redemption الموسم 1 الحلقة 4 الرابعة</t>
   </si>
   <si>
-    <t>https://www.cimaclub.io/the-blacklist-redemption-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-1-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-4-%d8%a7%d9%84%d8%b1%d8%a7%d8%a8%d8%b9%d8%a9/</t>
-  </si>
-  <si>
     <t>../screenshots/The Blacklist: Redemption الموسم 1 الحلقة 4 الرابعة.png</t>
   </si>
   <si>
+    <t>https://www.cimaclub.io/the-blacklist-redemption-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-1-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-5-%d8%a7%d9%84%d8%ae%d8%a7%d9%85%d8%b3%d8%a9/</t>
+  </si>
+  <si>
     <t>The Blacklist: Redemption الموسم 1 الحلقة 5 الخامسة</t>
   </si>
   <si>
-    <t>https://www.cimaclub.io/the-blacklist-redemption-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-1-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-5-%d8%a7%d9%84%d8%ae%d8%a7%d9%85%d8%b3%d8%a9/</t>
-  </si>
-  <si>
     <t>../screenshots/The Blacklist: Redemption الموسم 1 الحلقة 5 الخامسة.png</t>
   </si>
   <si>
+    <t>https://www.cimaclub.io/the-blacklist-redemption-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-1-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-6-%d8%a7%d9%84%d8%b3%d8%a7%d8%af%d8%b3%d8%a9/</t>
+  </si>
+  <si>
     <t>The Blacklist: Redemption الموسم 1 الحلقة 6 السادسة</t>
   </si>
   <si>
-    <t>https://www.cimaclub.io/the-blacklist-redemption-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-1-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-6-%d8%a7%d9%84%d8%b3%d8%a7%d8%af%d8%b3%d8%a9/</t>
-  </si>
-  <si>
     <t>../screenshots/The Blacklist: Redemption الموسم 1 الحلقة 6 السادسة.png</t>
   </si>
   <si>
+    <t>https://www.cimaclub.io/the-blacklist-redemption-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-1-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-7-%d8%a7%d9%84%d8%b3%d8%a7%d8%a8%d8%b9%d8%a9/</t>
+  </si>
+  <si>
     <t>The Blacklist: Redemption الموسم 1 الحلقة 7 السابعة</t>
   </si>
   <si>
-    <t>https://www.cimaclub.io/the-blacklist-redemption-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-1-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-7-%d8%a7%d9%84%d8%b3%d8%a7%d8%a8%d8%b9%d8%a9/</t>
-  </si>
-  <si>
     <t>../screenshots/The Blacklist: Redemption الموسم 1 الحلقة 7 السابعة.png</t>
   </si>
   <si>
+    <t>https://www.cimaclub.io/the-blacklist-redemption-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-1-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-8-%d8%a7%d9%84%d8%ab%d8%a7%d9%85%d9%86%d8%a9/</t>
+  </si>
+  <si>
     <t>The Blacklist: Redemption الموسم 1 الحلقة 8 الثامنة</t>
   </si>
   <si>
-    <t>https://www.cimaclub.io/the-blacklist-redemption-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-1-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-8-%d8%a7%d9%84%d8%ab%d8%a7%d9%85%d9%86%d8%a9/</t>
-  </si>
-  <si>
     <t>../screenshots/The Blacklist: Redemption الموسم 1 الحلقة 8 الثامنة.png</t>
   </si>
   <si>
+    <t>https://www.cimaclub.io/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-1-%d8%a7%d9%84%d8%a7%d9%88%d9%84-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-1-%d8%a7%d9%84%d8%a7%d9%88%d9%84%d9%8a/</t>
+  </si>
+  <si>
     <t>مسلسل The Blacklist الموسم 1 الاول الحلقة 1 الاولي</t>
   </si>
   <si>
-    <t>https://www.cimaclub.io/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-1-%d8%a7%d9%84%d8%a7%d9%88%d9%84-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-1-%d8%a7%d9%84%d8%a7%d9%88%d9%84%d9%8a/</t>
-  </si>
-  <si>
     <t>../screenshots/مسلسل The Blacklist الموسم 1 الاول الحلقة 1 الاولي.png</t>
   </si>
   <si>
+    <t>https://www.cimaclub.io/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-1-%d8%a7%d9%84%d8%a7%d9%88%d9%84-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-10-%d8%a7%d9%84%d8%b9%d8%a7%d8%b4%d8%b1%d8%a9/</t>
+  </si>
+  <si>
     <t>مسلسل The Blacklist الموسم 1 الاول الحلقة 10 العاشرة</t>
   </si>
   <si>
-    <t>https://www.cimaclub.io/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-1-%d8%a7%d9%84%d8%a7%d9%88%d9%84-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-10-%d8%a7%d9%84%d8%b9%d8%a7%d8%b4%d8%b1%d8%a9/</t>
-  </si>
-  <si>
     <t>../screenshots/مسلسل The Blacklist الموسم 1 الاول الحلقة 10 العاشرة.png</t>
   </si>
   <si>
+    <t>https://www.cimaclub.io/the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-1-%d8%a7%d9%84%d8%a7%d9%88%d9%84-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-11-%d8%a7%d9%84%d8%ad%d8%a7%d8%af%d9%8a%d8%a9-%d8%b9%d8%b4%d8%b1-%d9%85%d8%aa/</t>
+  </si>
+  <si>
     <t>مسلسل The Blacklist الموسم 1 الاول الحلقة 11 الحادية عشر</t>
   </si>
   <si>
-    <t>https://www.cimaclub.io/the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-1-%d8%a7%d9%84%d8%a7%d9%88%d9%84-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-11-%d8%a7%d9%84%d8%ad%d8%a7%d8%af%d9%8a%d8%a9-%d8%b9%d8%b4%d8%b1-%d9%85%d8%aa/</t>
-  </si>
-  <si>
     <t>../screenshots/مسلسل The Blacklist الموسم 1 الاول الحلقة 11 الحادية عشر.png</t>
   </si>
   <si>
+    <t>https://www.cimaclub.io/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-1-%d8%a7%d9%84%d8%a7%d9%88%d9%84-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-12-%d8%a7%d9%84%d8%ab%d8%a7%d9%86%d9%8a%d8%a9/</t>
+  </si>
+  <si>
     <t>مسلسل The Blacklist الموسم 1 الاول الحلقة 12 الثانية عشر</t>
   </si>
   <si>
-    <t>https://www.cimaclub.io/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-1-%d8%a7%d9%84%d8%a7%d9%88%d9%84-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-12-%d8%a7%d9%84%d8%ab%d8%a7%d9%86%d9%8a%d8%a9/</t>
-  </si>
-  <si>
     <t>../screenshots/مسلسل The Blacklist الموسم 1 الاول الحلقة 12 الثانية عشر.png</t>
   </si>
   <si>
+    <t>https://www.cimaclub.io/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-1-%d8%a7%d9%84%d8%a7%d9%88%d9%84-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-13-%d8%a7%d9%84%d8%ab%d8%a7%d9%84%d8%ab%d8%a9/</t>
+  </si>
+  <si>
     <t>مسلسل The Blacklist الموسم 1 الاول الحلقة 13 الثالثة عشر</t>
   </si>
   <si>
-    <t>https://www.cimaclub.io/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-1-%d8%a7%d9%84%d8%a7%d9%88%d9%84-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-13-%d8%a7%d9%84%d8%ab%d8%a7%d9%84%d8%ab%d8%a9/</t>
-  </si>
-  <si>
     <t>../screenshots/مسلسل The Blacklist الموسم 1 الاول الحلقة 13 الثالثة عشر.png</t>
   </si>
   <si>
+    <t>https://www.cimaclub.io/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-1-%d8%a7%d9%84%d8%a7%d9%88%d9%84-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-14-%d8%a7%d9%84%d8%b1%d8%a7%d8%a8%d8%b9%d8%a9/</t>
+  </si>
+  <si>
     <t>مسلسل The Blacklist الموسم 1 الاول الحلقة 14 الرابعة عشر</t>
   </si>
   <si>
-    <t>https://www.cimaclub.io/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-1-%d8%a7%d9%84%d8%a7%d9%88%d9%84-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-14-%d8%a7%d9%84%d8%b1%d8%a7%d8%a8%d8%b9%d8%a9/</t>
-  </si>
-  <si>
     <t>../screenshots/مسلسل The Blacklist الموسم 1 الاول الحلقة 14 الرابعة عشر.png</t>
   </si>
   <si>
+    <t>https://www.cimaclub.io/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-1-%d8%a7%d9%84%d8%a7%d9%88%d9%84-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-15-%d8%a7%d9%84%d8%ae%d8%a7%d9%85%d8%b3%d8%a9/</t>
+  </si>
+  <si>
     <t>مسلسل The Blacklist الموسم 1 الاول الحلقة 15 الخامسة عشر</t>
   </si>
   <si>
-    <t>https://www.cimaclub.io/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-1-%d8%a7%d9%84%d8%a7%d9%88%d9%84-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-15-%d8%a7%d9%84%d8%ae%d8%a7%d9%85%d8%b3%d8%a9/</t>
-  </si>
-  <si>
     <t>../screenshots/مسلسل The Blacklist الموسم 1 الاول الحلقة 15 الخامسة عشر.png</t>
   </si>
   <si>
+    <t>https://www.cimaclub.io/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-1-%d8%a7%d9%84%d8%a7%d9%88%d9%84-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-16-%d8%a7%d9%84%d8%b3%d8%a7%d8%af%d8%b3%d8%a9/</t>
+  </si>
+  <si>
     <t>مسلسل The Blacklist الموسم 1 الاول الحلقة 16 السادسة عشر</t>
   </si>
   <si>
-    <t>https://www.cimaclub.io/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-1-%d8%a7%d9%84%d8%a7%d9%88%d9%84-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-16-%d8%a7%d9%84%d8%b3%d8%a7%d8%af%d8%b3%d8%a9/</t>
-  </si>
-  <si>
     <t>../screenshots/مسلسل The Blacklist الموسم 1 الاول الحلقة 16 السادسة عشر.png</t>
   </si>
   <si>
+    <t>https://www.cimaclub.io/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-1-%d8%a7%d9%84%d8%a7%d9%88%d9%84-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-17-%d8%a7%d9%84%d8%b3%d8%a7%d8%a8%d8%b9%d8%a9/</t>
+  </si>
+  <si>
     <t>مسلسل The Blacklist الموسم 1 الاول الحلقة 17 السابعة عشر</t>
   </si>
   <si>
-    <t>https://www.cimaclub.io/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-1-%d8%a7%d9%84%d8%a7%d9%88%d9%84-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-17-%d8%a7%d9%84%d8%b3%d8%a7%d8%a8%d8%b9%d8%a9/</t>
-  </si>
-  <si>
     <t>../screenshots/مسلسل The Blacklist الموسم 1 الاول الحلقة 17 السابعة عشر.png</t>
   </si>
   <si>
+    <t>https://www.cimaclub.io/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-1-%d8%a7%d9%84%d8%a7%d9%88%d9%84-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-18-%d8%a7%d9%84%d8%ab%d8%a7%d9%85%d9%86%d8%a9/</t>
+  </si>
+  <si>
     <t>مسلسل The Blacklist الموسم 1 الاول الحلقة 18 الثامنة عشر</t>
   </si>
   <si>
-    <t>https://www.cimaclub.io/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-1-%d8%a7%d9%84%d8%a7%d9%88%d9%84-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-18-%d8%a7%d9%84%d8%ab%d8%a7%d9%85%d9%86%d8%a9/</t>
-  </si>
-  <si>
     <t>../screenshots/مسلسل The Blacklist الموسم 1 الاول الحلقة 18 الثامنة عشر.png</t>
   </si>
   <si>
+    <t>https://www.cimaclub.io/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-1-%d8%a7%d9%84%d8%a7%d9%88%d9%84-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-19-%d8%a7%d9%84%d8%aa%d8%a7%d8%b3%d8%b9%d8%a9/</t>
+  </si>
+  <si>
     <t>مسلسل The Blacklist الموسم 1 الاول الحلقة 19 التاسعة عشر</t>
   </si>
   <si>
-    <t>https://www.cimaclub.io/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-1-%d8%a7%d9%84%d8%a7%d9%88%d9%84-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-19-%d8%a7%d9%84%d8%aa%d8%a7%d8%b3%d8%b9%d8%a9/</t>
-  </si>
-  <si>
     <t>../screenshots/مسلسل The Blacklist الموسم 1 الاول الحلقة 19 التاسعة عشر.png</t>
   </si>
   <si>
+    <t>https://www.cimaclub.io/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-1-%d8%a7%d9%84%d8%a7%d9%88%d9%84-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-2-%d8%a7%d9%84%d8%ab%d8%a7%d9%86%d9%8a%d8%a9/</t>
+  </si>
+  <si>
     <t>مسلسل The Blacklist الموسم 1 الاول الحلقة 2 الثانية</t>
   </si>
   <si>
-    <t>https://www.cimaclub.io/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-1-%d8%a7%d9%84%d8%a7%d9%88%d9%84-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-2-%d8%a7%d9%84%d8%ab%d8%a7%d9%86%d9%8a%d8%a9/</t>
-  </si>
-  <si>
     <t>../screenshots/مسلسل The Blacklist الموسم 1 الاول الحلقة 2 الثانية.png</t>
   </si>
   <si>
+    <t>https://www.cimaclub.io/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-1-%d8%a7%d9%84%d8%a7%d9%88%d9%84-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-20-%d8%a7%d9%84%d8%b9%d8%b4%d8%b1%d9%88%d9%86/</t>
+  </si>
+  <si>
     <t>مسلسل The Blacklist الموسم 1 الاول الحلقة 20 العشرون</t>
   </si>
   <si>
-    <t>https://www.cimaclub.io/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-1-%d8%a7%d9%84%d8%a7%d9%88%d9%84-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-20-%d8%a7%d9%84%d8%b9%d8%b4%d8%b1%d9%88%d9%86/</t>
-  </si>
-  <si>
     <t>../screenshots/مسلسل The Blacklist الموسم 1 الاول الحلقة 20 العشرون.png</t>
   </si>
   <si>
+    <t>https://www.cimaclub.io/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-1-%d8%a7%d9%84%d8%a7%d9%88%d9%84-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-21-%d8%a7%d9%84%d9%88%d8%a7%d8%ad%d8%af%d8%a9/</t>
+  </si>
+  <si>
     <t>مسلسل The Blacklist الموسم 1 الاول الحلقة 21 الواحدة والعشرون</t>
   </si>
   <si>
-    <t>https://www.cimaclub.io/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-1-%d8%a7%d9%84%d8%a7%d9%88%d9%84-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-21-%d8%a7%d9%84%d9%88%d8%a7%d8%ad%d8%af%d8%a9/</t>
-  </si>
-  <si>
     <t>../screenshots/مسلسل The Blacklist الموسم 1 الاول الحلقة 21 الواحدة والعشرون.png</t>
   </si>
   <si>
+    <t>https://www.cimaclub.io/the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-1-%d8%a7%d9%84%d8%a7%d9%88%d9%84-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-22-%d8%a7%d9%84%d8%ab%d8%a7%d9%86%d9%8a%d8%a9-%d9%88-%d8%a7%d9%84%d8%b9%d8%b4/</t>
+  </si>
+  <si>
     <t>مسلسل The Blacklist الموسم 1 الاول الحلقة 22 الثانية والعشرون و الاخيرة</t>
   </si>
   <si>
-    <t>https://www.cimaclub.io/the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-1-%d8%a7%d9%84%d8%a7%d9%88%d9%84-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-22-%d8%a7%d9%84%d8%ab%d8%a7%d9%86%d9%8a%d8%a9-%d9%88-%d8%a7%d9%84%d8%b9%d8%b4/</t>
-  </si>
-  <si>
     <t>../screenshots/مسلسل The Blacklist الموسم 1 الاول الحلقة 22 الثانية والعشرون و الاخيرة.png</t>
   </si>
   <si>
+    <t>https://www.cimaclub.io/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-1-%d8%a7%d9%84%d8%a7%d9%88%d9%84-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-3-%d8%a7%d9%84%d8%ab%d8%a7%d9%84%d8%ab%d8%a9/</t>
+  </si>
+  <si>
     <t>مسلسل The Blacklist الموسم 1 الاول الحلقة 3 الثالثة</t>
   </si>
   <si>
-    <t>https://www.cimaclub.io/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-1-%d8%a7%d9%84%d8%a7%d9%88%d9%84-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-3-%d8%a7%d9%84%d8%ab%d8%a7%d9%84%d8%ab%d8%a9/</t>
-  </si>
-  <si>
     <t>../screenshots/مسلسل The Blacklist الموسم 1 الاول الحلقة 3 الثالثة.png</t>
   </si>
   <si>
+    <t>https://www.cimaclub.io/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-1-%d8%a7%d9%84%d8%a7%d9%88%d9%84-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-4-%d8%a7%d9%84%d8%b1%d8%a7%d8%a8%d8%b9%d8%a9/</t>
+  </si>
+  <si>
     <t>مسلسل The Blacklist الموسم 1 الاول الحلقة 4 الرابعة</t>
   </si>
   <si>
-    <t>https://www.cimaclub.io/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-1-%d8%a7%d9%84%d8%a7%d9%88%d9%84-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-4-%d8%a7%d9%84%d8%b1%d8%a7%d8%a8%d8%b9%d8%a9/</t>
-  </si>
-  <si>
     <t>../screenshots/مسلسل The Blacklist الموسم 1 الاول الحلقة 4 الرابعة.png</t>
   </si>
   <si>
+    <t>https://www.cimaclub.io/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-1-%d8%a7%d9%84%d8%a7%d9%88%d9%84-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-5-%d8%a7%d9%84%d8%ae%d8%a7%d9%85%d8%b3%d8%a9/</t>
+  </si>
+  <si>
     <t>مسلسل The Blacklist الموسم 1 الاول الحلقة 5 الخامسة</t>
   </si>
   <si>
-    <t>https://www.cimaclub.io/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-1-%d8%a7%d9%84%d8%a7%d9%88%d9%84-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-5-%d8%a7%d9%84%d8%ae%d8%a7%d9%85%d8%b3%d8%a9/</t>
-  </si>
-  <si>
     <t>../screenshots/مسلسل The Blacklist الموسم 1 الاول الحلقة 5 الخامسة.png</t>
   </si>
   <si>
+    <t>https://www.cimaclub.io/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-1-%d8%a7%d9%84%d8%a7%d9%88%d9%84-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-6-%d8%a7%d9%84%d8%b3%d8%a7%d8%af%d8%b3%d8%a9/</t>
+  </si>
+  <si>
     <t>مسلسل The Blacklist الموسم 1 الاول الحلقة 6 السادسة</t>
   </si>
   <si>
-    <t>https://www.cimaclub.io/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-1-%d8%a7%d9%84%d8%a7%d9%88%d9%84-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-6-%d8%a7%d9%84%d8%b3%d8%a7%d8%af%d8%b3%d8%a9/</t>
-  </si>
-  <si>
     <t>../screenshots/مسلسل The Blacklist الموسم 1 الاول الحلقة 6 السادسة.png</t>
   </si>
   <si>
+    <t>https://www.cimaclub.io/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-1-%d8%a7%d9%84%d8%a7%d9%88%d9%84-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-7-%d8%a7%d9%84%d8%b3%d8%a7%d8%a8%d8%b9%d8%a9/</t>
+  </si>
+  <si>
     <t>مسلسل The Blacklist الموسم 1 الاول الحلقة 7 السابعة</t>
   </si>
   <si>
-    <t>https://www.cimaclub.io/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-1-%d8%a7%d9%84%d8%a7%d9%88%d9%84-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-7-%d8%a7%d9%84%d8%b3%d8%a7%d8%a8%d8%b9%d8%a9/</t>
-  </si>
-  <si>
     <t>../screenshots/مسلسل The Blacklist الموسم 1 الاول الحلقة 7 السابعة.png</t>
   </si>
   <si>
+    <t>https://www.cimaclub.io/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-1-%d8%a7%d9%84%d8%a7%d9%88%d9%84-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-8-%d8%a7%d9%84%d8%ab%d8%a7%d9%85%d9%86%d8%a9/</t>
+  </si>
+  <si>
     <t>مسلسل The Blacklist الموسم 1 الاول الحلقة 8 الثامنة</t>
   </si>
   <si>
-    <t>https://www.cimaclub.io/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-1-%d8%a7%d9%84%d8%a7%d9%88%d9%84-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-8-%d8%a7%d9%84%d8%ab%d8%a7%d9%85%d9%86%d8%a9/</t>
-  </si>
-  <si>
     <t>../screenshots/مسلسل The Blacklist الموسم 1 الاول الحلقة 8 الثامنة.png</t>
   </si>
   <si>
+    <t>https://www.cimaclub.io/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-1-%d8%a7%d9%84%d8%a7%d9%88%d9%84-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-9-%d8%a7%d9%84%d8%aa%d8%a7%d8%b3%d8%b9%d8%a9/</t>
+  </si>
+  <si>
     <t>مسلسل The Blacklist الموسم 1 الاول الحلقة 9 التاسعة</t>
   </si>
   <si>
-    <t>https://www.cimaclub.io/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-1-%d8%a7%d9%84%d8%a7%d9%88%d9%84-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-9-%d8%a7%d9%84%d8%aa%d8%a7%d8%b3%d8%b9%d8%a9/</t>
-  </si>
-  <si>
     <t>../screenshots/مسلسل The Blacklist الموسم 1 الاول الحلقة 9 التاسعة.png</t>
   </si>
   <si>
+    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-%d8%a7%d9%84%d8%ad%d8%a8-%d9%88%d8%b1%d8%b7%d8%a9-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%a7%d9%88%d9%84-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-13.html</t>
+  </si>
+  <si>
+    <t>مسلسل الحب ورطة الموسم الاول الحلقة 13</t>
+  </si>
+  <si>
+    <t>cimaflash</t>
+  </si>
+  <si>
+    <t>../screenshots/مسلسل الحب ورطة الموسم الاول الحلقة 13.png</t>
+  </si>
+  <si>
+    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-%d8%a7%d9%84%d8%ad%d8%a8-%d9%88%d8%b1%d8%b7%d8%a9-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%a7%d9%88%d9%84-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-12.html</t>
+  </si>
+  <si>
+    <t>مسلسل الحب ورطة الموسم الاول الحلقة 12</t>
+  </si>
+  <si>
+    <t>../screenshots/مسلسل الحب ورطة الموسم الاول الحلقة 12.png</t>
+  </si>
+  <si>
+    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-%d8%a7%d9%84%d8%ad%d8%a8-%d9%88%d8%b1%d8%b7%d8%a9-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%a7%d9%88%d9%84-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-11.html</t>
+  </si>
+  <si>
+    <t>مسلسل الحب ورطة الموسم الاول الحلقة 11</t>
+  </si>
+  <si>
+    <t>../screenshots/مسلسل الحب ورطة الموسم الاول الحلقة 11.png</t>
+  </si>
+  <si>
+    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-%d8%a7%d9%84%d8%ad%d8%a8-%d9%88%d8%b1%d8%b7%d8%a9-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%a7%d9%88%d9%84-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-10.html</t>
+  </si>
+  <si>
+    <t>مسلسل الحب ورطة الموسم الاول الحلقة 10</t>
+  </si>
+  <si>
+    <t>../screenshots/مسلسل الحب ورطة الموسم الاول الحلقة 10.png</t>
+  </si>
+  <si>
+    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-%d8%a7%d9%84%d8%ad%d8%a8-%d9%88%d8%b1%d8%b7%d8%a9-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%a7%d9%88%d9%84-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-9.html</t>
+  </si>
+  <si>
+    <t>مسلسل الحب ورطة الموسم الاول الحلقة 9</t>
+  </si>
+  <si>
+    <t>../screenshots/مسلسل الحب ورطة الموسم الاول الحلقة 9.png</t>
+  </si>
+  <si>
+    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-%d8%a7%d9%84%d8%ad%d8%a8-%d9%88%d8%b1%d8%b7%d8%a9-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%a7%d9%88%d9%84-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-8.html</t>
+  </si>
+  <si>
+    <t>مسلسل الحب ورطة الموسم الاول الحلقة 8</t>
+  </si>
+  <si>
+    <t>../screenshots/مسلسل الحب ورطة الموسم الاول الحلقة 8.png</t>
+  </si>
+  <si>
+    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-%d8%a7%d9%84%d8%ad%d8%a8-%d9%88%d8%b1%d8%b7%d8%a9-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%a7%d9%88%d9%84-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-7.html</t>
+  </si>
+  <si>
+    <t>مسلسل الحب ورطة الموسم الاول الحلقة 7</t>
+  </si>
+  <si>
+    <t>../screenshots/مسلسل الحب ورطة الموسم الاول الحلقة 7.png</t>
+  </si>
+  <si>
+    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-%d8%a7%d9%84%d8%ad%d8%a8-%d9%88%d8%b1%d8%b7%d8%a9-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%a7%d9%88%d9%84-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-6.html</t>
+  </si>
+  <si>
+    <t>مسلسل الحب ورطة الموسم الاول الحلقة 6</t>
+  </si>
+  <si>
+    <t>../screenshots/مسلسل الحب ورطة الموسم الاول الحلقة 6.png</t>
+  </si>
+  <si>
+    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-%d8%a7%d9%84%d8%ad%d8%a8-%d9%88%d8%b1%d8%b7%d8%a9-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%a7%d9%88%d9%84-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-5.html</t>
+  </si>
+  <si>
+    <t>مسلسل الحب ورطة الموسم الاول الحلقة 5</t>
+  </si>
+  <si>
+    <t>../screenshots/مسلسل الحب ورطة الموسم الاول الحلقة 5.png</t>
+  </si>
+  <si>
+    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-%d8%a7%d9%84%d8%ad%d8%a8-%d9%88%d8%b1%d8%b7%d8%a9-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%a7%d9%88%d9%84-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-4.html</t>
+  </si>
+  <si>
+    <t>مسلسل الحب ورطة الموسم الاول الحلقة 4</t>
+  </si>
+  <si>
+    <t>../screenshots/مسلسل الحب ورطة الموسم الاول الحلقة 4.png</t>
+  </si>
+  <si>
+    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-%d8%a7%d9%84%d8%ad%d8%a8-%d9%88%d8%b1%d8%b7%d8%a9-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%a7%d9%88%d9%84-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-3.html</t>
+  </si>
+  <si>
+    <t>مسلسل الحب ورطة الموسم الاول الحلقة 3</t>
+  </si>
+  <si>
+    <t>../screenshots/مسلسل الحب ورطة الموسم الاول الحلقة 3.png</t>
+  </si>
+  <si>
+    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-%d8%a7%d9%84%d8%ad%d8%a8-%d9%88%d8%b1%d8%b7%d8%a9-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%a7%d9%88%d9%84-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-2.html</t>
+  </si>
+  <si>
+    <t>مسلسل الحب ورطة الموسم الاول الحلقة 2</t>
+  </si>
+  <si>
+    <t>../screenshots/مسلسل الحب ورطة الموسم الاول الحلقة 2.png</t>
+  </si>
+  <si>
+    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-%d8%a7%d9%84%d8%ad%d8%a8-%d9%88%d8%b1%d8%b7%d8%a9-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%a7%d9%88%d9%84-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-1.html</t>
+  </si>
+  <si>
+    <t>مسلسل الحب ورطة الموسم الاول الحلقة 1</t>
+  </si>
+  <si>
+    <t>../screenshots/مسلسل الحب ورطة الموسم الاول الحلقة 1.png</t>
+  </si>
+  <si>
+    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%ab%d8%a7%d9%86%d9%89-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-13.html</t>
+  </si>
+  <si>
     <t>مسلسل The Blacklist الموسم الثانى الحلقة 13</t>
   </si>
   <si>
-    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%ab%d8%a7%d9%86%d9%89-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-13.html</t>
-  </si>
-  <si>
-    <t>cimaflash</t>
-  </si>
-  <si>
     <t>../screenshots/مسلسل The Blacklist الموسم الثانى الحلقة 13.png</t>
   </si>
   <si>
+    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%ab%d8%a7%d9%84%d8%ab-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-13.html</t>
+  </si>
+  <si>
     <t>مسلسل The Blacklist الموسم الثالث الحلقة 13</t>
   </si>
   <si>
-    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%ab%d8%a7%d9%84%d8%ab-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-13.html</t>
-  </si>
-  <si>
     <t>../screenshots/مسلسل The Blacklist الموسم الثالث الحلقة 13.png</t>
   </si>
   <si>
+    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%a7%d9%88%d9%84-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-13.html</t>
+  </si>
+  <si>
     <t>مسلسل The Blacklist الموسم الاول الحلقة 13</t>
   </si>
   <si>
-    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%a7%d9%88%d9%84-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-13.html</t>
-  </si>
-  <si>
     <t>../screenshots/مسلسل The Blacklist الموسم الاول الحلقة 13.png</t>
   </si>
   <si>
+    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%b1%d8%a7%d8%a8%d8%b9-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-13.html</t>
+  </si>
+  <si>
     <t>مسلسل The Blacklist الموسم الرابع الحلقة 13</t>
   </si>
   <si>
-    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%b1%d8%a7%d8%a8%d8%b9-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-13.html</t>
-  </si>
-  <si>
     <t>../screenshots/مسلسل The Blacklist الموسم الرابع الحلقة 13.png</t>
   </si>
   <si>
+    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%b3%d8%a7%d8%a8%d8%b9-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-13.html</t>
+  </si>
+  <si>
     <t>مسلسل The Blacklist الموسم السابع الحلقة 13</t>
   </si>
   <si>
-    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%b3%d8%a7%d8%a8%d8%b9-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-13.html</t>
-  </si>
-  <si>
     <t>../screenshots/مسلسل The Blacklist الموسم السابع الحلقة 13.png</t>
   </si>
   <si>
+    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%ab%d8%a7%d9%86%d9%89-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-12.html</t>
+  </si>
+  <si>
     <t>مسلسل The Blacklist الموسم الثانى الحلقة 12</t>
   </si>
   <si>
-    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%ab%d8%a7%d9%86%d9%89-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-12.html</t>
-  </si>
-  <si>
     <t>../screenshots/مسلسل The Blacklist الموسم الثانى الحلقة 12.png</t>
   </si>
   <si>
+    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%ab%d8%a7%d9%84%d8%ab-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-12.html</t>
+  </si>
+  <si>
     <t>مسلسل The Blacklist الموسم الثالث الحلقة 12</t>
   </si>
   <si>
-    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%ab%d8%a7%d9%84%d8%ab-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-12.html</t>
-  </si>
-  <si>
     <t>../screenshots/مسلسل The Blacklist الموسم الثالث الحلقة 12.png</t>
   </si>
   <si>
+    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%a7%d9%88%d9%84-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-12.html</t>
+  </si>
+  <si>
     <t>مسلسل The Blacklist الموسم الاول الحلقة 12</t>
   </si>
   <si>
-    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%a7%d9%88%d9%84-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-12.html</t>
-  </si>
-  <si>
     <t>../screenshots/مسلسل The Blacklist الموسم الاول الحلقة 12.png</t>
   </si>
   <si>
+    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%b1%d8%a7%d8%a8%d8%b9-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-12.html</t>
+  </si>
+  <si>
     <t>مسلسل The Blacklist الموسم الرابع الحلقة 12</t>
   </si>
   <si>
-    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%b1%d8%a7%d8%a8%d8%b9-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-12.html</t>
-  </si>
-  <si>
     <t>../screenshots/مسلسل The Blacklist الموسم الرابع الحلقة 12.png</t>
   </si>
   <si>
+    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%b3%d8%a7%d8%a8%d8%b9-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-12.html</t>
+  </si>
+  <si>
     <t>مسلسل The Blacklist الموسم السابع الحلقة 12</t>
   </si>
   <si>
-    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%b3%d8%a7%d8%a8%d8%b9-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-12.html</t>
-  </si>
-  <si>
     <t>../screenshots/مسلسل The Blacklist الموسم السابع الحلقة 12.png</t>
   </si>
   <si>
+    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%ab%d8%a7%d9%86%d9%89-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-11.html</t>
+  </si>
+  <si>
     <t>مسلسل The Blacklist الموسم الثانى الحلقة 11</t>
   </si>
   <si>
-    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%ab%d8%a7%d9%86%d9%89-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-11.html</t>
-  </si>
-  <si>
     <t>../screenshots/مسلسل The Blacklist الموسم الثانى الحلقة 11.png</t>
   </si>
   <si>
+    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%ab%d8%a7%d9%84%d8%ab-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-11.html</t>
+  </si>
+  <si>
     <t>مسلسل The Blacklist الموسم الثالث الحلقة 11</t>
   </si>
   <si>
-    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%ab%d8%a7%d9%84%d8%ab-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-11.html</t>
-  </si>
-  <si>
     <t>../screenshots/مسلسل The Blacklist الموسم الثالث الحلقة 11.png</t>
   </si>
   <si>
+    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%a7%d9%88%d9%84-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-11.html</t>
+  </si>
+  <si>
     <t>مسلسل The Blacklist الموسم الاول الحلقة 11</t>
   </si>
   <si>
-    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%a7%d9%88%d9%84-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-11.html</t>
-  </si>
-  <si>
     <t>../screenshots/مسلسل The Blacklist الموسم الاول الحلقة 11.png</t>
   </si>
   <si>
+    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%b1%d8%a7%d8%a8%d8%b9-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-11.html</t>
+  </si>
+  <si>
     <t>مسلسل The Blacklist الموسم الرابع الحلقة 11</t>
   </si>
   <si>
-    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%b1%d8%a7%d8%a8%d8%b9-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-11.html</t>
-  </si>
-  <si>
     <t>../screenshots/مسلسل The Blacklist الموسم الرابع الحلقة 11.png</t>
   </si>
   <si>
+    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%b3%d8%a7%d8%a8%d8%b9-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-11.html</t>
+  </si>
+  <si>
     <t>مسلسل The Blacklist الموسم السابع الحلقة 11</t>
   </si>
   <si>
-    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%b3%d8%a7%d8%a8%d8%b9-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-11.html</t>
-  </si>
-  <si>
     <t>../screenshots/مسلسل The Blacklist الموسم السابع الحلقة 11.png</t>
   </si>
   <si>
+    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%ab%d8%a7%d9%86%d9%89-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-10.html</t>
+  </si>
+  <si>
     <t>مسلسل The Blacklist الموسم الثانى الحلقة 10</t>
   </si>
   <si>
-    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%ab%d8%a7%d9%86%d9%89-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-10.html</t>
-  </si>
-  <si>
     <t>../screenshots/مسلسل The Blacklist الموسم الثانى الحلقة 10.png</t>
   </si>
   <si>
+    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%ab%d8%a7%d9%84%d8%ab-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-10.html</t>
+  </si>
+  <si>
     <t>مسلسل The Blacklist الموسم الثالث الحلقة 10</t>
   </si>
   <si>
-    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%ab%d8%a7%d9%84%d8%ab-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-10.html</t>
-  </si>
-  <si>
     <t>../screenshots/مسلسل The Blacklist الموسم الثالث الحلقة 10.png</t>
   </si>
   <si>
+    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%a7%d9%88%d9%84-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-10.html</t>
+  </si>
+  <si>
     <t>مسلسل The Blacklist الموسم الاول الحلقة 10</t>
   </si>
   <si>
-    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%a7%d9%88%d9%84-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-10.html</t>
-  </si>
-  <si>
     <t>../screenshots/مسلسل The Blacklist الموسم الاول الحلقة 10.png</t>
   </si>
   <si>
+    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%b1%d8%a7%d8%a8%d8%b9-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-10.html</t>
+  </si>
+  <si>
     <t>مسلسل The Blacklist الموسم الرابع الحلقة 10</t>
   </si>
   <si>
-    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%b1%d8%a7%d8%a8%d8%b9-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-10.html</t>
-  </si>
-  <si>
     <t>../screenshots/مسلسل The Blacklist الموسم الرابع الحلقة 10.png</t>
   </si>
   <si>
+    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%ab%d8%a7%d9%86%d9%89-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-9.html</t>
+  </si>
+  <si>
     <t>مسلسل The Blacklist الموسم الثانى الحلقة 9</t>
   </si>
   <si>
-    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%ab%d8%a7%d9%86%d9%89-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-9.html</t>
-  </si>
-  <si>
     <t>../screenshots/مسلسل The Blacklist الموسم الثانى الحلقة 9.png</t>
   </si>
   <si>
+    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%ab%d8%a7%d9%84%d8%ab-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-9.html</t>
+  </si>
+  <si>
     <t>مسلسل The Blacklist الموسم الثالث الحلقة 9</t>
   </si>
   <si>
-    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%ab%d8%a7%d9%84%d8%ab-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-9.html</t>
-  </si>
-  <si>
     <t>../screenshots/مسلسل The Blacklist الموسم الثالث الحلقة 9.png</t>
   </si>
   <si>
+    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%a7%d9%88%d9%84-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-9.html</t>
+  </si>
+  <si>
     <t>مسلسل The Blacklist الموسم الاول الحلقة 9</t>
   </si>
   <si>
-    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%a7%d9%88%d9%84-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-9.html</t>
-  </si>
-  <si>
     <t>../screenshots/مسلسل The Blacklist الموسم الاول الحلقة 9.png</t>
   </si>
   <si>
+    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%b1%d8%a7%d8%a8%d8%b9-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-9.html</t>
+  </si>
+  <si>
     <t>مسلسل The Blacklist الموسم الرابع الحلقة 9</t>
   </si>
   <si>
-    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%b1%d8%a7%d8%a8%d8%b9-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-9.html</t>
-  </si>
-  <si>
     <t>../screenshots/مسلسل The Blacklist الموسم الرابع الحلقة 9.png</t>
   </si>
   <si>
+    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%ab%d8%a7%d9%86%d9%89-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-8.html</t>
+  </si>
+  <si>
     <t>مسلسل The Blacklist الموسم الثانى الحلقة 8</t>
   </si>
   <si>
-    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%ab%d8%a7%d9%86%d9%89-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-8.html</t>
-  </si>
-  <si>
     <t>../screenshots/مسلسل The Blacklist الموسم الثانى الحلقة 8.png</t>
   </si>
   <si>
+    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%ab%d8%a7%d9%84%d8%ab-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-8.html</t>
+  </si>
+  <si>
     <t>مسلسل The Blacklist الموسم الثالث الحلقة 8</t>
   </si>
   <si>
-    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%ab%d8%a7%d9%84%d8%ab-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-8.html</t>
-  </si>
-  <si>
     <t>../screenshots/مسلسل The Blacklist الموسم الثالث الحلقة 8.png</t>
   </si>
   <si>
+    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-redemption-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%a7%d9%88%d9%84-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-8.html</t>
+  </si>
+  <si>
     <t>مسلسل The Blacklist Redemption الموسم الاول الحلقة 8</t>
   </si>
   <si>
-    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-redemption-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%a7%d9%88%d9%84-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-8.html</t>
-  </si>
-  <si>
     <t>../screenshots/مسلسل The Blacklist Redemption الموسم الاول الحلقة 8.png</t>
   </si>
   <si>
+    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%a7%d9%88%d9%84-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-8.html</t>
+  </si>
+  <si>
     <t>مسلسل The Blacklist الموسم الاول الحلقة 8</t>
   </si>
   <si>
-    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%a7%d9%88%d9%84-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-8.html</t>
-  </si>
-  <si>
     <t>../screenshots/مسلسل The Blacklist الموسم الاول الحلقة 8.png</t>
   </si>
   <si>
+    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%b1%d8%a7%d8%a8%d8%b9-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-8.html</t>
+  </si>
+  <si>
     <t>مسلسل The Blacklist الموسم الرابع الحلقة 8</t>
   </si>
   <si>
-    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%b1%d8%a7%d8%a8%d8%b9-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-8.html</t>
-  </si>
-  <si>
     <t>../screenshots/مسلسل The Blacklist الموسم الرابع الحلقة 8.png</t>
   </si>
   <si>
+    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%ab%d8%a7%d9%86%d9%89-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-7.html</t>
+  </si>
+  <si>
     <t>مسلسل The Blacklist الموسم الثانى الحلقة 7</t>
   </si>
   <si>
-    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%ab%d8%a7%d9%86%d9%89-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-7.html</t>
-  </si>
-  <si>
     <t>../screenshots/مسلسل The Blacklist الموسم الثانى الحلقة 7.png</t>
   </si>
   <si>
+    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%ab%d8%a7%d9%84%d8%ab-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-7.html</t>
+  </si>
+  <si>
     <t>مسلسل The Blacklist الموسم الثالث الحلقة 7</t>
   </si>
   <si>
-    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%ab%d8%a7%d9%84%d8%ab-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-7.html</t>
-  </si>
-  <si>
     <t>../screenshots/مسلسل The Blacklist الموسم الثالث الحلقة 7.png</t>
   </si>
   <si>
+    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-redemption-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%a7%d9%88%d9%84-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-7.html</t>
+  </si>
+  <si>
     <t>مسلسل The Blacklist Redemption الموسم الاول الحلقة 7</t>
   </si>
   <si>
-    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-redemption-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%a7%d9%88%d9%84-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-7.html</t>
-  </si>
-  <si>
     <t>../screenshots/مسلسل The Blacklist Redemption الموسم الاول الحلقة 7.png</t>
   </si>
   <si>
+    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%a7%d9%88%d9%84-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-7.html</t>
+  </si>
+  <si>
     <t>مسلسل The Blacklist الموسم الاول الحلقة 7</t>
   </si>
   <si>
-    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%a7%d9%88%d9%84-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-7.html</t>
-  </si>
-  <si>
     <t>../screenshots/مسلسل The Blacklist الموسم الاول الحلقة 7.png</t>
   </si>
   <si>
+    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%b1%d8%a7%d8%a8%d8%b9-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-7.html</t>
+  </si>
+  <si>
     <t>مسلسل The Blacklist الموسم الرابع الحلقة 7</t>
   </si>
   <si>
-    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%b1%d8%a7%d8%a8%d8%b9-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-7.html</t>
-  </si>
-  <si>
     <t>../screenshots/مسلسل The Blacklist الموسم الرابع الحلقة 7.png</t>
   </si>
   <si>
+    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%ab%d8%a7%d9%86%d9%89-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-6.html</t>
+  </si>
+  <si>
     <t>مسلسل The Blacklist الموسم الثانى الحلقة 6</t>
   </si>
   <si>
-    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%ab%d8%a7%d9%86%d9%89-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-6.html</t>
-  </si>
-  <si>
     <t>../screenshots/مسلسل The Blacklist الموسم الثانى الحلقة 6.png</t>
   </si>
   <si>
+    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%ab%d8%a7%d9%84%d8%ab-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-6.html</t>
+  </si>
+  <si>
     <t>مسلسل The Blacklist الموسم الثالث الحلقة 6</t>
   </si>
   <si>
-    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%ab%d8%a7%d9%84%d8%ab-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-6.html</t>
-  </si>
-  <si>
     <t>../screenshots/مسلسل The Blacklist الموسم الثالث الحلقة 6.png</t>
   </si>
   <si>
+    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-redemption-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%a7%d9%88%d9%84-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-6.html</t>
+  </si>
+  <si>
     <t>مسلسل The Blacklist Redemption الموسم الاول الحلقة 6</t>
   </si>
   <si>
-    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-redemption-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%a7%d9%88%d9%84-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-6.html</t>
-  </si>
-  <si>
     <t>../screenshots/مسلسل The Blacklist Redemption الموسم الاول الحلقة 6.png</t>
   </si>
   <si>
+    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%a7%d9%88%d9%84-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-6.html</t>
+  </si>
+  <si>
     <t>مسلسل The Blacklist الموسم الاول الحلقة 6</t>
   </si>
   <si>
-    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%a7%d9%88%d9%84-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-6.html</t>
-  </si>
-  <si>
     <t>../screenshots/مسلسل The Blacklist الموسم الاول الحلقة 6.png</t>
   </si>
   <si>
+    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%b1%d8%a7%d8%a8%d8%b9-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-6.html</t>
+  </si>
+  <si>
     <t>مسلسل The Blacklist الموسم الرابع الحلقة 6</t>
   </si>
   <si>
-    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%b1%d8%a7%d8%a8%d8%b9-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-6.html</t>
-  </si>
-  <si>
     <t>../screenshots/مسلسل The Blacklist الموسم الرابع الحلقة 6.png</t>
   </si>
   <si>
+    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%ab%d8%a7%d9%86%d9%89-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-5.html</t>
+  </si>
+  <si>
     <t>مسلسل The Blacklist الموسم الثانى الحلقة 5</t>
   </si>
   <si>
-    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%ab%d8%a7%d9%86%d9%89-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-5.html</t>
-  </si>
-  <si>
     <t>../screenshots/مسلسل The Blacklist الموسم الثانى الحلقة 5.png</t>
   </si>
   <si>
+    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%ab%d8%a7%d9%84%d8%ab-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-5.html</t>
+  </si>
+  <si>
     <t>مسلسل The Blacklist الموسم الثالث الحلقة 5</t>
   </si>
   <si>
-    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-the-blacklist-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%ab%d8%a7%d9%84%d8%ab-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-5.html</t>
-  </si>
-  <si>
     <t>../screenshots/مسلسل The Blacklist الموسم الثالث الحلقة 5.png</t>
-  </si>
-  <si>
-    <t>مسلسل الحب ورطة الموسم الاول الحلقة 13</t>
-  </si>
-  <si>
-    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-%d8%a7%d9%84%d8%ad%d8%a8-%d9%88%d8%b1%d8%b7%d8%a9-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%a7%d9%88%d9%84-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-13.html</t>
-  </si>
-  <si>
-    <t>../screenshots/مسلسل الحب ورطة الموسم الاول الحلقة 13.png</t>
-  </si>
-  <si>
-    <t>مسلسل الحب ورطة الموسم الاول الحلقة 12</t>
-  </si>
-  <si>
-    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-%d8%a7%d9%84%d8%ad%d8%a8-%d9%88%d8%b1%d8%b7%d8%a9-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%a7%d9%88%d9%84-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-12.html</t>
-  </si>
-  <si>
-    <t>../screenshots/مسلسل الحب ورطة الموسم الاول الحلقة 12.png</t>
-  </si>
-  <si>
-    <t>مسلسل الحب ورطة الموسم الاول الحلقة 11</t>
-  </si>
-  <si>
-    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-%d8%a7%d9%84%d8%ad%d8%a8-%d9%88%d8%b1%d8%b7%d8%a9-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%a7%d9%88%d9%84-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-11.html</t>
-  </si>
-  <si>
-    <t>../screenshots/مسلسل الحب ورطة الموسم الاول الحلقة 11.png</t>
-  </si>
-  <si>
-    <t>مسلسل الحب ورطة الموسم الاول الحلقة 10</t>
-  </si>
-  <si>
-    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-%d8%a7%d9%84%d8%ad%d8%a8-%d9%88%d8%b1%d8%b7%d8%a9-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%a7%d9%88%d9%84-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-10.html</t>
-  </si>
-  <si>
-    <t>../screenshots/مسلسل الحب ورطة الموسم الاول الحلقة 10.png</t>
-  </si>
-  <si>
-    <t>مسلسل الحب ورطة الموسم الاول الحلقة 9</t>
-  </si>
-  <si>
-    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-%d8%a7%d9%84%d8%ad%d8%a8-%d9%88%d8%b1%d8%b7%d8%a9-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%a7%d9%88%d9%84-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-9.html</t>
-  </si>
-  <si>
-    <t>../screenshots/مسلسل الحب ورطة الموسم الاول الحلقة 9.png</t>
-  </si>
-  <si>
-    <t>مسلسل الحب ورطة الموسم الاول الحلقة 8</t>
-  </si>
-  <si>
-    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-%d8%a7%d9%84%d8%ad%d8%a8-%d9%88%d8%b1%d8%b7%d8%a9-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%a7%d9%88%d9%84-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-8.html</t>
-  </si>
-  <si>
-    <t>../screenshots/مسلسل الحب ورطة الموسم الاول الحلقة 8.png</t>
-  </si>
-  <si>
-    <t>مسلسل الحب ورطة الموسم الاول الحلقة 7</t>
-  </si>
-  <si>
-    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-%d8%a7%d9%84%d8%ad%d8%a8-%d9%88%d8%b1%d8%b7%d8%a9-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%a7%d9%88%d9%84-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-7.html</t>
-  </si>
-  <si>
-    <t>../screenshots/مسلسل الحب ورطة الموسم الاول الحلقة 7.png</t>
-  </si>
-  <si>
-    <t>مسلسل الحب ورطة الموسم الاول الحلقة 6</t>
-  </si>
-  <si>
-    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-%d8%a7%d9%84%d8%ad%d8%a8-%d9%88%d8%b1%d8%b7%d8%a9-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%a7%d9%88%d9%84-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-6.html</t>
-  </si>
-  <si>
-    <t>../screenshots/مسلسل الحب ورطة الموسم الاول الحلقة 6.png</t>
-  </si>
-  <si>
-    <t>مسلسل الحب ورطة الموسم الاول الحلقة 5</t>
-  </si>
-  <si>
-    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-%d8%a7%d9%84%d8%ad%d8%a8-%d9%88%d8%b1%d8%b7%d8%a9-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%a7%d9%88%d9%84-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-5.html</t>
-  </si>
-  <si>
-    <t>../screenshots/مسلسل الحب ورطة الموسم الاول الحلقة 5.png</t>
-  </si>
-  <si>
-    <t>مسلسل الحب ورطة الموسم الاول الحلقة 4</t>
-  </si>
-  <si>
-    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-%d8%a7%d9%84%d8%ad%d8%a8-%d9%88%d8%b1%d8%b7%d8%a9-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%a7%d9%88%d9%84-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-4.html</t>
-  </si>
-  <si>
-    <t>../screenshots/مسلسل الحب ورطة الموسم الاول الحلقة 4.png</t>
-  </si>
-  <si>
-    <t>مسلسل الحب ورطة الموسم الاول الحلقة 3</t>
-  </si>
-  <si>
-    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-%d8%a7%d9%84%d8%ad%d8%a8-%d9%88%d8%b1%d8%b7%d8%a9-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%a7%d9%88%d9%84-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-3.html</t>
-  </si>
-  <si>
-    <t>../screenshots/مسلسل الحب ورطة الموسم الاول الحلقة 3.png</t>
-  </si>
-  <si>
-    <t>مسلسل الحب ورطة الموسم الاول الحلقة 2</t>
-  </si>
-  <si>
-    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-%d8%a7%d9%84%d8%ad%d8%a8-%d9%88%d8%b1%d8%b7%d8%a9-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%a7%d9%88%d9%84-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-2.html</t>
-  </si>
-  <si>
-    <t>../screenshots/مسلسل الحب ورطة الموسم الاول الحلقة 2.png</t>
-  </si>
-  <si>
-    <t>مسلسل الحب ورطة الموسم الاول الحلقة 1</t>
-  </si>
-  <si>
-    <t>https://cimaflash.me/%d9%85%d8%b3%d9%84%d8%b3%d9%84-%d8%a7%d9%84%d8%ad%d8%a8-%d9%88%d8%b1%d8%b7%d8%a9-%d8%a7%d9%84%d9%85%d9%88%d8%b3%d9%85-%d8%a7%d9%84%d8%a7%d9%88%d9%84-%d8%a7%d9%84%d8%ad%d9%84%d9%82%d8%a9-1.html</t>
-  </si>
-  <si>
-    <t>../screenshots/مسلسل الحب ورطة الموسم الاول الحلقة 1.png</t>
   </si>
 </sst>
 </file>
@@ -1147,21 +1150,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D84"/>
+  <dimension ref="A1:E84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="52.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.6640625" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="68.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.77734375" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.33203125" customWidth="1"/>
+    <col min="6" max="41" width="9.109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1174,13 +1179,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -1188,419 +1196,509 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="2" t="s">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="2" t="s">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="2" t="s">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="2" t="s">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="2" t="s">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="2" t="s">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="2" t="s">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="2" t="s">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="2" t="s">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="2" t="s">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>42</v>
       </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="2" t="s">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>45</v>
       </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="2" t="s">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>48</v>
       </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>51</v>
       </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="D17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="2" t="s">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="2" t="s">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="2" t="s">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>60</v>
       </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="D20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="2" t="s">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="D21" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="2" t="s">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
         <v>66</v>
       </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="2" t="s">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
         <v>69</v>
       </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="D23" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" t="s">
         <v>71</v>
       </c>
-      <c r="B24" s="2" t="s">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>72</v>
       </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="D24" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" t="s">
         <v>74</v>
       </c>
-      <c r="B25" s="2" t="s">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
         <v>75</v>
       </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
       <c r="C25" t="s">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="D25" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" t="s">
         <v>77</v>
       </c>
-      <c r="B26" s="2" t="s">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
         <v>78</v>
       </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="D26" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" t="s">
         <v>80</v>
       </c>
-      <c r="B27" s="2" t="s">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>81</v>
       </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="D27" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" t="s">
         <v>83</v>
       </c>
-      <c r="B28" s="2" t="s">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
         <v>84</v>
       </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
       <c r="C28" t="s">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="D28" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" t="s">
         <v>86</v>
       </c>
-      <c r="B29" s="2" t="s">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
       <c r="C29" t="s">
-        <v>6</v>
+        <v>88</v>
       </c>
       <c r="D29" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" t="s">
         <v>89</v>
       </c>
-      <c r="B30" s="2" t="s">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
         <v>90</v>
       </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>91</v>
       </c>
       <c r="D30" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" t="s">
         <v>92</v>
       </c>
-      <c r="B31" s="2" t="s">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
         <v>93</v>
       </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
       <c r="C31" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="D31" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" t="s">
         <v>95</v>
       </c>
-      <c r="B32" s="2" t="s">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
         <v>96</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
       </c>
       <c r="C32" t="s">
         <v>97</v>
@@ -1608,820 +1706,979 @@
       <c r="D32" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="E32" t="s">
         <v>99</v>
       </c>
-      <c r="B33" s="2" t="s">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
         <v>100</v>
       </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
       <c r="C33" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D33" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+        <v>98</v>
+      </c>
+      <c r="E33" t="s">
         <v>102</v>
       </c>
-      <c r="B34" s="2" t="s">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
         <v>103</v>
       </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
       <c r="C34" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D34" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+        <v>98</v>
+      </c>
+      <c r="E34" t="s">
         <v>105</v>
       </c>
-      <c r="B35" s="2" t="s">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
         <v>106</v>
       </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
       <c r="C35" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="D35" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+        <v>98</v>
+      </c>
+      <c r="E35" t="s">
         <v>108</v>
       </c>
-      <c r="B36" s="2" t="s">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
         <v>109</v>
       </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
       <c r="C36" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="D36" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+        <v>98</v>
+      </c>
+      <c r="E36" t="s">
         <v>111</v>
       </c>
-      <c r="B37" s="2" t="s">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
         <v>112</v>
       </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
       <c r="C37" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="D37" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+        <v>98</v>
+      </c>
+      <c r="E37" t="s">
         <v>114</v>
       </c>
-      <c r="B38" s="2" t="s">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
         <v>115</v>
       </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
       <c r="C38" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="D38" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+        <v>98</v>
+      </c>
+      <c r="E38" t="s">
         <v>117</v>
       </c>
-      <c r="B39" s="2" t="s">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
         <v>118</v>
       </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
       <c r="C39" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="D39" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+        <v>98</v>
+      </c>
+      <c r="E39" t="s">
         <v>120</v>
       </c>
-      <c r="B40" s="2" t="s">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
         <v>121</v>
       </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
       <c r="C40" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="D40" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+        <v>98</v>
+      </c>
+      <c r="E40" t="s">
         <v>123</v>
       </c>
-      <c r="B41" s="2" t="s">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
         <v>124</v>
       </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
       <c r="C41" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="D41" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+        <v>98</v>
+      </c>
+      <c r="E41" t="s">
         <v>126</v>
       </c>
-      <c r="B42" s="2" t="s">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
         <v>127</v>
       </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
       <c r="C42" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="D42" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+        <v>98</v>
+      </c>
+      <c r="E42" t="s">
         <v>129</v>
       </c>
-      <c r="B43" s="2" t="s">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
         <v>130</v>
       </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
       <c r="C43" t="s">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="D43" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+        <v>98</v>
+      </c>
+      <c r="E43" t="s">
         <v>132</v>
       </c>
-      <c r="B44" s="2" t="s">
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
         <v>133</v>
       </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
       <c r="C44" t="s">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="D44" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+        <v>98</v>
+      </c>
+      <c r="E44" t="s">
         <v>135</v>
       </c>
-      <c r="B45" s="2" t="s">
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
         <v>136</v>
       </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
       <c r="C45" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="D45" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+        <v>98</v>
+      </c>
+      <c r="E45" t="s">
         <v>138</v>
       </c>
-      <c r="B46" s="2" t="s">
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
         <v>139</v>
       </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
       <c r="C46" t="s">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="D46" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+        <v>98</v>
+      </c>
+      <c r="E46" t="s">
         <v>141</v>
       </c>
-      <c r="B47" s="2" t="s">
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
         <v>142</v>
       </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
       <c r="C47" t="s">
-        <v>97</v>
+        <v>143</v>
       </c>
       <c r="D47" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+        <v>98</v>
+      </c>
+      <c r="E47" t="s">
         <v>144</v>
       </c>
-      <c r="B48" s="2" t="s">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
         <v>145</v>
       </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
       <c r="C48" t="s">
-        <v>97</v>
+        <v>146</v>
       </c>
       <c r="D48" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+        <v>98</v>
+      </c>
+      <c r="E48" t="s">
         <v>147</v>
       </c>
-      <c r="B49" s="2" t="s">
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
         <v>148</v>
       </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
       <c r="C49" t="s">
-        <v>97</v>
+        <v>149</v>
       </c>
       <c r="D49" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+        <v>98</v>
+      </c>
+      <c r="E49" t="s">
         <v>150</v>
       </c>
-      <c r="B50" s="2" t="s">
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
         <v>151</v>
       </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
       <c r="C50" t="s">
-        <v>97</v>
+        <v>152</v>
       </c>
       <c r="D50" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+        <v>98</v>
+      </c>
+      <c r="E50" t="s">
         <v>153</v>
       </c>
-      <c r="B51" s="2" t="s">
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
         <v>154</v>
       </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
       <c r="C51" t="s">
-        <v>97</v>
+        <v>155</v>
       </c>
       <c r="D51" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+        <v>98</v>
+      </c>
+      <c r="E51" t="s">
         <v>156</v>
       </c>
-      <c r="B52" s="2" t="s">
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
         <v>157</v>
       </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
       <c r="C52" t="s">
-        <v>97</v>
+        <v>158</v>
       </c>
       <c r="D52" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+        <v>98</v>
+      </c>
+      <c r="E52" t="s">
         <v>159</v>
       </c>
-      <c r="B53" s="2" t="s">
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
         <v>160</v>
       </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
       <c r="C53" t="s">
-        <v>97</v>
+        <v>161</v>
       </c>
       <c r="D53" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+        <v>98</v>
+      </c>
+      <c r="E53" t="s">
         <v>162</v>
       </c>
-      <c r="B54" s="2" t="s">
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
         <v>163</v>
       </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
       <c r="C54" t="s">
-        <v>97</v>
+        <v>164</v>
       </c>
       <c r="D54" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+        <v>98</v>
+      </c>
+      <c r="E54" t="s">
         <v>165</v>
       </c>
-      <c r="B55" s="2" t="s">
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
         <v>166</v>
       </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
       <c r="C55" t="s">
-        <v>97</v>
+        <v>167</v>
       </c>
       <c r="D55" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+        <v>98</v>
+      </c>
+      <c r="E55" t="s">
         <v>168</v>
       </c>
-      <c r="B56" s="2" t="s">
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
         <v>169</v>
       </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
       <c r="C56" t="s">
-        <v>97</v>
+        <v>170</v>
       </c>
       <c r="D56" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+        <v>98</v>
+      </c>
+      <c r="E56" t="s">
         <v>171</v>
       </c>
-      <c r="B57" s="2" t="s">
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
         <v>172</v>
       </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
       <c r="C57" t="s">
-        <v>97</v>
+        <v>173</v>
       </c>
       <c r="D57" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+        <v>98</v>
+      </c>
+      <c r="E57" t="s">
         <v>174</v>
       </c>
-      <c r="B58" s="2" t="s">
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
         <v>175</v>
       </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
       <c r="C58" t="s">
-        <v>97</v>
+        <v>176</v>
       </c>
       <c r="D58" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+        <v>98</v>
+      </c>
+      <c r="E58" t="s">
         <v>177</v>
       </c>
-      <c r="B59" s="2" t="s">
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
         <v>178</v>
       </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
       <c r="C59" t="s">
-        <v>97</v>
+        <v>179</v>
       </c>
       <c r="D59" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
+        <v>98</v>
+      </c>
+      <c r="E59" t="s">
         <v>180</v>
       </c>
-      <c r="B60" s="2" t="s">
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
         <v>181</v>
       </c>
+      <c r="B60">
+        <v>2</v>
+      </c>
       <c r="C60" t="s">
-        <v>97</v>
+        <v>182</v>
       </c>
       <c r="D60" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
+        <v>98</v>
+      </c>
+      <c r="E60" t="s">
         <v>183</v>
       </c>
-      <c r="B61" s="2" t="s">
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
         <v>184</v>
       </c>
+      <c r="B61">
+        <v>2</v>
+      </c>
       <c r="C61" t="s">
-        <v>97</v>
+        <v>185</v>
       </c>
       <c r="D61" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+        <v>98</v>
+      </c>
+      <c r="E61" t="s">
         <v>186</v>
       </c>
-      <c r="B62" s="2" t="s">
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
         <v>187</v>
       </c>
+      <c r="B62">
+        <v>2</v>
+      </c>
       <c r="C62" t="s">
-        <v>97</v>
+        <v>188</v>
       </c>
       <c r="D62" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+        <v>98</v>
+      </c>
+      <c r="E62" t="s">
         <v>189</v>
       </c>
-      <c r="B63" s="2" t="s">
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
         <v>190</v>
       </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
       <c r="C63" t="s">
-        <v>97</v>
+        <v>191</v>
       </c>
       <c r="D63" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+        <v>98</v>
+      </c>
+      <c r="E63" t="s">
         <v>192</v>
       </c>
-      <c r="B64" s="2" t="s">
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
         <v>193</v>
       </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
       <c r="C64" t="s">
-        <v>97</v>
+        <v>194</v>
       </c>
       <c r="D64" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+        <v>98</v>
+      </c>
+      <c r="E64" t="s">
         <v>195</v>
       </c>
-      <c r="B65" s="2" t="s">
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
         <v>196</v>
       </c>
+      <c r="B65">
+        <v>2</v>
+      </c>
       <c r="C65" t="s">
-        <v>97</v>
+        <v>197</v>
       </c>
       <c r="D65" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+        <v>98</v>
+      </c>
+      <c r="E65" t="s">
         <v>198</v>
       </c>
-      <c r="B66" s="2" t="s">
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
         <v>199</v>
       </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
       <c r="C66" t="s">
-        <v>97</v>
+        <v>200</v>
       </c>
       <c r="D66" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+        <v>98</v>
+      </c>
+      <c r="E66" t="s">
         <v>201</v>
       </c>
-      <c r="B67" s="2" t="s">
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
         <v>202</v>
       </c>
+      <c r="B67">
+        <v>2</v>
+      </c>
       <c r="C67" t="s">
-        <v>97</v>
+        <v>203</v>
       </c>
       <c r="D67" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
+        <v>98</v>
+      </c>
+      <c r="E67" t="s">
         <v>204</v>
       </c>
-      <c r="B68" s="2" t="s">
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
         <v>205</v>
       </c>
+      <c r="B68">
+        <v>2</v>
+      </c>
       <c r="C68" t="s">
-        <v>97</v>
+        <v>206</v>
       </c>
       <c r="D68" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
+        <v>98</v>
+      </c>
+      <c r="E68" t="s">
         <v>207</v>
       </c>
-      <c r="B69" s="2" t="s">
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
         <v>208</v>
       </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
       <c r="C69" t="s">
-        <v>97</v>
+        <v>209</v>
       </c>
       <c r="D69" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
+        <v>98</v>
+      </c>
+      <c r="E69" t="s">
         <v>210</v>
       </c>
-      <c r="B70" s="2" t="s">
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
         <v>211</v>
       </c>
+      <c r="B70">
+        <v>2</v>
+      </c>
       <c r="C70" t="s">
-        <v>97</v>
+        <v>212</v>
       </c>
       <c r="D70" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
+        <v>98</v>
+      </c>
+      <c r="E70" t="s">
         <v>213</v>
       </c>
-      <c r="B71" s="2" t="s">
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
         <v>214</v>
       </c>
+      <c r="B71">
+        <v>2</v>
+      </c>
       <c r="C71" t="s">
-        <v>97</v>
+        <v>215</v>
       </c>
       <c r="D71" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
+        <v>98</v>
+      </c>
+      <c r="E71" t="s">
         <v>216</v>
       </c>
-      <c r="B72" s="2" t="s">
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
         <v>217</v>
       </c>
+      <c r="B72">
+        <v>2</v>
+      </c>
       <c r="C72" t="s">
-        <v>97</v>
+        <v>218</v>
       </c>
       <c r="D72" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
+        <v>98</v>
+      </c>
+      <c r="E72" t="s">
         <v>219</v>
       </c>
-      <c r="B73" s="2" t="s">
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
         <v>220</v>
       </c>
+      <c r="B73">
+        <v>2</v>
+      </c>
       <c r="C73" t="s">
-        <v>97</v>
+        <v>221</v>
       </c>
       <c r="D73" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
+        <v>98</v>
+      </c>
+      <c r="E73" t="s">
         <v>222</v>
       </c>
-      <c r="B74" s="2" t="s">
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
         <v>223</v>
       </c>
+      <c r="B74">
+        <v>2</v>
+      </c>
       <c r="C74" t="s">
-        <v>97</v>
+        <v>224</v>
       </c>
       <c r="D74" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
+        <v>98</v>
+      </c>
+      <c r="E74" t="s">
         <v>225</v>
       </c>
-      <c r="B75" s="2" t="s">
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
         <v>226</v>
       </c>
+      <c r="B75">
+        <v>2</v>
+      </c>
       <c r="C75" t="s">
-        <v>97</v>
+        <v>227</v>
       </c>
       <c r="D75" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
+        <v>98</v>
+      </c>
+      <c r="E75" t="s">
         <v>228</v>
       </c>
-      <c r="B76" s="2" t="s">
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
         <v>229</v>
       </c>
+      <c r="B76">
+        <v>2</v>
+      </c>
       <c r="C76" t="s">
-        <v>97</v>
+        <v>230</v>
       </c>
       <c r="D76" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
+        <v>98</v>
+      </c>
+      <c r="E76" t="s">
         <v>231</v>
       </c>
-      <c r="B77" s="2" t="s">
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
         <v>232</v>
       </c>
+      <c r="B77">
+        <v>2</v>
+      </c>
       <c r="C77" t="s">
-        <v>97</v>
+        <v>233</v>
       </c>
       <c r="D77" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
+        <v>98</v>
+      </c>
+      <c r="E77" t="s">
         <v>234</v>
       </c>
-      <c r="B78" s="2" t="s">
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
         <v>235</v>
       </c>
+      <c r="B78">
+        <v>2</v>
+      </c>
       <c r="C78" t="s">
-        <v>97</v>
+        <v>236</v>
       </c>
       <c r="D78" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
+        <v>98</v>
+      </c>
+      <c r="E78" t="s">
         <v>237</v>
       </c>
-      <c r="B79" s="2" t="s">
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
         <v>238</v>
       </c>
+      <c r="B79">
+        <v>2</v>
+      </c>
       <c r="C79" t="s">
-        <v>97</v>
+        <v>239</v>
       </c>
       <c r="D79" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
+        <v>98</v>
+      </c>
+      <c r="E79" t="s">
         <v>240</v>
       </c>
-      <c r="B80" s="2" t="s">
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
         <v>241</v>
       </c>
+      <c r="B80">
+        <v>2</v>
+      </c>
       <c r="C80" t="s">
-        <v>97</v>
+        <v>242</v>
       </c>
       <c r="D80" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
+        <v>98</v>
+      </c>
+      <c r="E80" t="s">
         <v>243</v>
       </c>
-      <c r="B81" s="2" t="s">
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
         <v>244</v>
       </c>
+      <c r="B81">
+        <v>2</v>
+      </c>
       <c r="C81" t="s">
-        <v>97</v>
+        <v>245</v>
       </c>
       <c r="D81" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
+        <v>98</v>
+      </c>
+      <c r="E81" t="s">
         <v>246</v>
       </c>
-      <c r="B82" s="2" t="s">
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
         <v>247</v>
       </c>
+      <c r="B82">
+        <v>2</v>
+      </c>
       <c r="C82" t="s">
-        <v>97</v>
+        <v>248</v>
       </c>
       <c r="D82" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
+        <v>98</v>
+      </c>
+      <c r="E82" t="s">
         <v>249</v>
       </c>
-      <c r="B83" s="2" t="s">
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
         <v>250</v>
       </c>
+      <c r="B83">
+        <v>2</v>
+      </c>
       <c r="C83" t="s">
-        <v>97</v>
+        <v>251</v>
       </c>
       <c r="D83" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
+        <v>98</v>
+      </c>
+      <c r="E83" t="s">
         <v>252</v>
       </c>
-      <c r="B84" s="2" t="s">
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
         <v>253</v>
       </c>
+      <c r="B84">
+        <v>2</v>
+      </c>
       <c r="C84" t="s">
-        <v>97</v>
+        <v>254</v>
       </c>
       <c r="D84" t="s">
-        <v>254</v>
+        <v>98</v>
+      </c>
+      <c r="E84" t="s">
+        <v>255</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
-    <hyperlink ref="B8" r:id="rId7"/>
-    <hyperlink ref="B9" r:id="rId8"/>
-    <hyperlink ref="B10" r:id="rId9"/>
-    <hyperlink ref="B11" r:id="rId10"/>
-    <hyperlink ref="B12" r:id="rId11"/>
-    <hyperlink ref="B13" r:id="rId12"/>
-    <hyperlink ref="B14" r:id="rId13"/>
-    <hyperlink ref="B15" r:id="rId14"/>
-    <hyperlink ref="B16" r:id="rId15"/>
-    <hyperlink ref="B17" r:id="rId16"/>
-    <hyperlink ref="B18" r:id="rId17"/>
-    <hyperlink ref="B19" r:id="rId18"/>
-    <hyperlink ref="B20" r:id="rId19"/>
-    <hyperlink ref="B21" r:id="rId20"/>
-    <hyperlink ref="B22" r:id="rId21"/>
-    <hyperlink ref="B23" r:id="rId22"/>
-    <hyperlink ref="B24" r:id="rId23"/>
-    <hyperlink ref="B25" r:id="rId24"/>
-    <hyperlink ref="B26" r:id="rId25"/>
-    <hyperlink ref="B27" r:id="rId26"/>
-    <hyperlink ref="B28" r:id="rId27"/>
-    <hyperlink ref="B29" r:id="rId28"/>
-    <hyperlink ref="B30" r:id="rId29"/>
-    <hyperlink ref="B31" r:id="rId30"/>
-    <hyperlink ref="B32" r:id="rId31"/>
-    <hyperlink ref="B33" r:id="rId32"/>
-    <hyperlink ref="B34" r:id="rId33"/>
-    <hyperlink ref="B35" r:id="rId34"/>
-    <hyperlink ref="B36" r:id="rId35"/>
-    <hyperlink ref="B37" r:id="rId36"/>
-    <hyperlink ref="B38" r:id="rId37"/>
-    <hyperlink ref="B39" r:id="rId38"/>
-    <hyperlink ref="B40" r:id="rId39"/>
-    <hyperlink ref="B41" r:id="rId40"/>
-    <hyperlink ref="B42" r:id="rId41"/>
-    <hyperlink ref="B43" r:id="rId42"/>
-    <hyperlink ref="B44" r:id="rId43"/>
-    <hyperlink ref="B45" r:id="rId44"/>
-    <hyperlink ref="B46" r:id="rId45"/>
-    <hyperlink ref="B47" r:id="rId46"/>
-    <hyperlink ref="B48" r:id="rId47"/>
-    <hyperlink ref="B49" r:id="rId48"/>
-    <hyperlink ref="B50" r:id="rId49"/>
-    <hyperlink ref="B51" r:id="rId50"/>
-    <hyperlink ref="B52" r:id="rId51"/>
-    <hyperlink ref="B53" r:id="rId52"/>
-    <hyperlink ref="B54" r:id="rId53"/>
-    <hyperlink ref="B55" r:id="rId54"/>
-    <hyperlink ref="B56" r:id="rId55"/>
-    <hyperlink ref="B57" r:id="rId56"/>
-    <hyperlink ref="B58" r:id="rId57"/>
-    <hyperlink ref="B59" r:id="rId58"/>
-    <hyperlink ref="B60" r:id="rId59"/>
-    <hyperlink ref="B61" r:id="rId60"/>
-    <hyperlink ref="B62" r:id="rId61"/>
-    <hyperlink ref="B63" r:id="rId62"/>
-    <hyperlink ref="B64" r:id="rId63"/>
-    <hyperlink ref="B65" r:id="rId64"/>
-    <hyperlink ref="B66" r:id="rId65"/>
-    <hyperlink ref="B67" r:id="rId66"/>
-    <hyperlink ref="B68" r:id="rId67"/>
-    <hyperlink ref="B69" r:id="rId68"/>
-    <hyperlink ref="B70" r:id="rId69"/>
-    <hyperlink ref="B71" r:id="rId70"/>
-    <hyperlink ref="B72" r:id="rId71"/>
-    <hyperlink ref="B73" r:id="rId72"/>
-    <hyperlink ref="B74" r:id="rId73"/>
-    <hyperlink ref="B75" r:id="rId74"/>
-    <hyperlink ref="B76" r:id="rId75"/>
-    <hyperlink ref="B77" r:id="rId76"/>
-    <hyperlink ref="B78" r:id="rId77"/>
-    <hyperlink ref="B79" r:id="rId78"/>
-    <hyperlink ref="B80" r:id="rId79"/>
-    <hyperlink ref="B81" r:id="rId80"/>
-    <hyperlink ref="B82" r:id="rId81"/>
-    <hyperlink ref="B83" r:id="rId82"/>
-    <hyperlink ref="B84" r:id="rId83"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId5"/>
+    <hyperlink ref="A7" r:id="rId6"/>
+    <hyperlink ref="A8" r:id="rId7"/>
+    <hyperlink ref="A9" r:id="rId8"/>
+    <hyperlink ref="A10" r:id="rId9"/>
+    <hyperlink ref="A11" r:id="rId10"/>
+    <hyperlink ref="A12" r:id="rId11"/>
+    <hyperlink ref="A13" r:id="rId12"/>
+    <hyperlink ref="A14" r:id="rId13"/>
+    <hyperlink ref="A15" r:id="rId14"/>
+    <hyperlink ref="A16" r:id="rId15"/>
+    <hyperlink ref="A17" r:id="rId16"/>
+    <hyperlink ref="A18" r:id="rId17"/>
+    <hyperlink ref="A19" r:id="rId18"/>
+    <hyperlink ref="A20" r:id="rId19"/>
+    <hyperlink ref="A21" r:id="rId20"/>
+    <hyperlink ref="A22" r:id="rId21"/>
+    <hyperlink ref="A23" r:id="rId22"/>
+    <hyperlink ref="A24" r:id="rId23"/>
+    <hyperlink ref="A25" r:id="rId24"/>
+    <hyperlink ref="A26" r:id="rId25"/>
+    <hyperlink ref="A27" r:id="rId26"/>
+    <hyperlink ref="A28" r:id="rId27"/>
+    <hyperlink ref="A29" r:id="rId28"/>
+    <hyperlink ref="A30" r:id="rId29"/>
+    <hyperlink ref="A31" r:id="rId30"/>
+    <hyperlink ref="A32" r:id="rId31"/>
+    <hyperlink ref="A33" r:id="rId32"/>
+    <hyperlink ref="A34" r:id="rId33"/>
+    <hyperlink ref="A35" r:id="rId34"/>
+    <hyperlink ref="A36" r:id="rId35"/>
+    <hyperlink ref="A37" r:id="rId36"/>
+    <hyperlink ref="A38" r:id="rId37"/>
+    <hyperlink ref="A39" r:id="rId38"/>
+    <hyperlink ref="A40" r:id="rId39"/>
+    <hyperlink ref="A41" r:id="rId40"/>
+    <hyperlink ref="A42" r:id="rId41"/>
+    <hyperlink ref="A43" r:id="rId42"/>
+    <hyperlink ref="A44" r:id="rId43"/>
+    <hyperlink ref="A45" r:id="rId44"/>
+    <hyperlink ref="A46" r:id="rId45"/>
+    <hyperlink ref="A47" r:id="rId46"/>
+    <hyperlink ref="A48" r:id="rId47"/>
+    <hyperlink ref="A49" r:id="rId48"/>
+    <hyperlink ref="A50" r:id="rId49"/>
+    <hyperlink ref="A51" r:id="rId50"/>
+    <hyperlink ref="A52" r:id="rId51"/>
+    <hyperlink ref="A53" r:id="rId52"/>
+    <hyperlink ref="A54" r:id="rId53"/>
+    <hyperlink ref="A55" r:id="rId54"/>
+    <hyperlink ref="A56" r:id="rId55"/>
+    <hyperlink ref="A57" r:id="rId56"/>
+    <hyperlink ref="A58" r:id="rId57"/>
+    <hyperlink ref="A59" r:id="rId58"/>
+    <hyperlink ref="A60" r:id="rId59"/>
+    <hyperlink ref="A61" r:id="rId60"/>
+    <hyperlink ref="A62" r:id="rId61"/>
+    <hyperlink ref="A63" r:id="rId62"/>
+    <hyperlink ref="A64" r:id="rId63"/>
+    <hyperlink ref="A65" r:id="rId64"/>
+    <hyperlink ref="A66" r:id="rId65"/>
+    <hyperlink ref="A67" r:id="rId66"/>
+    <hyperlink ref="A68" r:id="rId67"/>
+    <hyperlink ref="A69" r:id="rId68"/>
+    <hyperlink ref="A70" r:id="rId69"/>
+    <hyperlink ref="A71" r:id="rId70"/>
+    <hyperlink ref="A72" r:id="rId71"/>
+    <hyperlink ref="A73" r:id="rId72"/>
+    <hyperlink ref="A74" r:id="rId73"/>
+    <hyperlink ref="A75" r:id="rId74"/>
+    <hyperlink ref="A76" r:id="rId75"/>
+    <hyperlink ref="A77" r:id="rId76"/>
+    <hyperlink ref="A78" r:id="rId77"/>
+    <hyperlink ref="A79" r:id="rId78"/>
+    <hyperlink ref="A80" r:id="rId79"/>
+    <hyperlink ref="A81" r:id="rId80"/>
+    <hyperlink ref="A82" r:id="rId81"/>
+    <hyperlink ref="A83" r:id="rId82"/>
+    <hyperlink ref="A84" r:id="rId83"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/code/database/data_extract.xlsx
+++ b/code/database/data_extract.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fatim\Desktop\crawl\code\database\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -792,8 +787,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -852,14 +847,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -906,7 +893,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -938,10 +925,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -973,7 +959,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1149,24 +1134,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="40.77734375" customWidth="1"/>
-    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.33203125" customWidth="1"/>
-    <col min="6" max="41" width="9.109375"/>
+    <col min="1" max="1" width="40.7109375" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1183,7 +1165,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1200,7 +1182,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -1217,7 +1199,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -1234,7 +1216,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
@@ -1251,7 +1233,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -1268,7 +1250,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -1285,7 +1267,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
         <v>24</v>
       </c>
@@ -1302,7 +1284,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
         <v>27</v>
       </c>
@@ -1319,7 +1301,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
         <v>30</v>
       </c>
@@ -1336,7 +1318,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
         <v>33</v>
       </c>
@@ -1353,7 +1335,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
         <v>36</v>
       </c>
@@ -1370,7 +1352,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
         <v>39</v>
       </c>
@@ -1387,7 +1369,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
         <v>42</v>
       </c>
@@ -1404,7 +1386,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
         <v>45</v>
       </c>
@@ -1421,7 +1403,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
         <v>48</v>
       </c>
@@ -1438,7 +1420,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
         <v>51</v>
       </c>
@@ -1455,7 +1437,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
         <v>54</v>
       </c>
@@ -1472,7 +1454,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
         <v>57</v>
       </c>
@@ -1489,7 +1471,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
         <v>60</v>
       </c>
@@ -1506,7 +1488,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
         <v>63</v>
       </c>
@@ -1523,7 +1505,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22" s="2" t="s">
         <v>66</v>
       </c>
@@ -1540,7 +1522,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23" s="2" t="s">
         <v>69</v>
       </c>
@@ -1557,7 +1539,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24" s="2" t="s">
         <v>72</v>
       </c>
@@ -1574,7 +1556,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25" s="2" t="s">
         <v>75</v>
       </c>
@@ -1591,7 +1573,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="A26" s="2" t="s">
         <v>78</v>
       </c>
@@ -1608,7 +1590,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5">
       <c r="A27" s="2" t="s">
         <v>81</v>
       </c>
@@ -1625,7 +1607,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5">
       <c r="A28" s="2" t="s">
         <v>84</v>
       </c>
@@ -1642,7 +1624,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5">
       <c r="A29" s="2" t="s">
         <v>87</v>
       </c>
@@ -1659,7 +1641,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5">
       <c r="A30" s="2" t="s">
         <v>90</v>
       </c>
@@ -1676,7 +1658,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5">
       <c r="A31" s="2" t="s">
         <v>93</v>
       </c>
@@ -1693,7 +1675,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5">
       <c r="A32" s="2" t="s">
         <v>96</v>
       </c>
@@ -1710,7 +1692,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5">
       <c r="A33" s="2" t="s">
         <v>100</v>
       </c>
@@ -1727,7 +1709,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5">
       <c r="A34" s="2" t="s">
         <v>103</v>
       </c>
@@ -1744,7 +1726,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5">
       <c r="A35" s="2" t="s">
         <v>106</v>
       </c>
@@ -1761,7 +1743,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5">
       <c r="A36" s="2" t="s">
         <v>109</v>
       </c>
@@ -1778,7 +1760,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5">
       <c r="A37" s="2" t="s">
         <v>112</v>
       </c>
@@ -1795,7 +1777,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5">
       <c r="A38" s="2" t="s">
         <v>115</v>
       </c>
@@ -1812,7 +1794,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5">
       <c r="A39" s="2" t="s">
         <v>118</v>
       </c>
@@ -1829,7 +1811,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5">
       <c r="A40" s="2" t="s">
         <v>121</v>
       </c>
@@ -1846,7 +1828,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5">
       <c r="A41" s="2" t="s">
         <v>124</v>
       </c>
@@ -1863,7 +1845,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5">
       <c r="A42" s="2" t="s">
         <v>127</v>
       </c>
@@ -1880,7 +1862,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5">
       <c r="A43" s="2" t="s">
         <v>130</v>
       </c>
@@ -1897,7 +1879,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5">
       <c r="A44" s="2" t="s">
         <v>133</v>
       </c>
@@ -1914,7 +1896,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5">
       <c r="A45" s="2" t="s">
         <v>136</v>
       </c>
@@ -1931,7 +1913,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5">
       <c r="A46" s="2" t="s">
         <v>139</v>
       </c>
@@ -1948,7 +1930,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5">
       <c r="A47" s="2" t="s">
         <v>142</v>
       </c>
@@ -1965,7 +1947,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5">
       <c r="A48" s="2" t="s">
         <v>145</v>
       </c>
@@ -1982,7 +1964,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5">
       <c r="A49" s="2" t="s">
         <v>148</v>
       </c>
@@ -1999,7 +1981,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5">
       <c r="A50" s="2" t="s">
         <v>151</v>
       </c>
@@ -2016,7 +1998,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5">
       <c r="A51" s="2" t="s">
         <v>154</v>
       </c>
@@ -2033,7 +2015,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5">
       <c r="A52" s="2" t="s">
         <v>157</v>
       </c>
@@ -2050,7 +2032,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5">
       <c r="A53" s="2" t="s">
         <v>160</v>
       </c>
@@ -2067,7 +2049,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5">
       <c r="A54" s="2" t="s">
         <v>163</v>
       </c>
@@ -2084,7 +2066,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5">
       <c r="A55" s="2" t="s">
         <v>166</v>
       </c>
@@ -2101,7 +2083,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5">
       <c r="A56" s="2" t="s">
         <v>169</v>
       </c>
@@ -2118,7 +2100,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5">
       <c r="A57" s="2" t="s">
         <v>172</v>
       </c>
@@ -2135,7 +2117,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5">
       <c r="A58" s="2" t="s">
         <v>175</v>
       </c>
@@ -2152,7 +2134,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5">
       <c r="A59" s="2" t="s">
         <v>178</v>
       </c>
@@ -2169,7 +2151,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5">
       <c r="A60" s="2" t="s">
         <v>181</v>
       </c>
@@ -2186,7 +2168,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5">
       <c r="A61" s="2" t="s">
         <v>184</v>
       </c>
@@ -2203,7 +2185,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5">
       <c r="A62" s="2" t="s">
         <v>187</v>
       </c>
@@ -2220,7 +2202,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5">
       <c r="A63" s="2" t="s">
         <v>190</v>
       </c>
@@ -2237,7 +2219,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5">
       <c r="A64" s="2" t="s">
         <v>193</v>
       </c>
@@ -2254,7 +2236,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5">
       <c r="A65" s="2" t="s">
         <v>196</v>
       </c>
@@ -2271,7 +2253,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5">
       <c r="A66" s="2" t="s">
         <v>199</v>
       </c>
@@ -2288,7 +2270,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5">
       <c r="A67" s="2" t="s">
         <v>202</v>
       </c>
@@ -2305,7 +2287,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5">
       <c r="A68" s="2" t="s">
         <v>205</v>
       </c>
@@ -2322,7 +2304,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5">
       <c r="A69" s="2" t="s">
         <v>208</v>
       </c>
@@ -2339,7 +2321,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5">
       <c r="A70" s="2" t="s">
         <v>211</v>
       </c>
@@ -2356,7 +2338,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5">
       <c r="A71" s="2" t="s">
         <v>214</v>
       </c>
@@ -2373,7 +2355,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5">
       <c r="A72" s="2" t="s">
         <v>217</v>
       </c>
@@ -2390,7 +2372,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5">
       <c r="A73" s="2" t="s">
         <v>220</v>
       </c>
@@ -2407,7 +2389,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5">
       <c r="A74" s="2" t="s">
         <v>223</v>
       </c>
@@ -2424,7 +2406,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5">
       <c r="A75" s="2" t="s">
         <v>226</v>
       </c>
@@ -2441,7 +2423,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5">
       <c r="A76" s="2" t="s">
         <v>229</v>
       </c>
@@ -2458,7 +2440,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5">
       <c r="A77" s="2" t="s">
         <v>232</v>
       </c>
@@ -2475,7 +2457,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5">
       <c r="A78" s="2" t="s">
         <v>235</v>
       </c>
@@ -2492,7 +2474,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5">
       <c r="A79" s="2" t="s">
         <v>238</v>
       </c>
@@ -2509,7 +2491,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5">
       <c r="A80" s="2" t="s">
         <v>241</v>
       </c>
@@ -2526,7 +2508,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5">
       <c r="A81" s="2" t="s">
         <v>244</v>
       </c>
@@ -2543,7 +2525,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5">
       <c r="A82" s="2" t="s">
         <v>247</v>
       </c>
@@ -2560,7 +2542,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5">
       <c r="A83" s="2" t="s">
         <v>250</v>
       </c>
@@ -2577,7 +2559,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5">
       <c r="A84" s="2" t="s">
         <v>253</v>
       </c>
